--- a/biology/Botanique/Olea_chimanimani/Olea_chimanimani.xlsx
+++ b/biology/Botanique/Olea_chimanimani/Olea_chimanimani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea chimanimani Kupicha est un taxon d'oliviers appartenant au genre Olea. Il a été reconnu dans la révision du genre Olea publiée en 2002 par P.S. Green. C'est une espèce très localisée sur des sols inhospitaliers, dans les Monts Chimanimani situés à cheval sur la frontière séparant la Tanzanie du Zimbabwe, .
 </t>
@@ -513,15 +525,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Référence taxonomique
-Ce taxon est décrit, selon P.S. Green [1], dans : Kew Bull. 34 : 71, fig. 1 (1979) &amp; in Laumert, Fl. Zambez. 7 : 327 (1983). Type Zimbabwe, Goodier &amp; Phipps 308 (holotype K ; isotypes PRE &amp; SRGH, n.v.).
-Appareil végétatif
-C'est un buisson ou un arbre pouvant atteindre 2 à 6 m de haut. 
+          <t>Référence taxonomique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est décrit, selon P.S. Green , dans : Kew Bull. 34 : 71, fig. 1 (1979) &amp; in Laumert, Fl. Zambez. 7 : 327 (1983). Type Zimbabwe, Goodier &amp; Phipps 308 (holotype K ; isotypes PRE &amp; SRGH, n.v.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Olea_chimanimani</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_chimanimani</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est un buisson ou un arbre pouvant atteindre 2 à 6 m de haut. 
 Jeunes pousses : glabres.
 Feuilles glabres, pétioles de 3 à 6 mm de long, le limbe est étroitement elliptique, de 3 ou 4 à 6 ou 7 cm de long et 0,5 ou 0,7 à 1 ou 1,5 cm de large, la base aigüe, l'apex aigu parfois obtus, l'extrémité mucronée.
-Nervures : nervuration sombre.
-Appareil reproducteur
-Inflorescences : terminales, en panicules, glabres, pédoncules et pédicelles minces de 2 ou 3,5 mm de long.
+Nervures : nervuration sombre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_chimanimani</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_chimanimani</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Inflorescences : terminales, en panicules, glabres, pédoncules et pédicelles minces de 2 ou 3,5 mm de long.
 Calice : en tube, 0,25 mm de long, lobes triangulaires, 0,25 mm de long.
 Corolle : blanche ou crème, tube de 0,25 à 3 mm de long, lobes de 1,5 mm de long.
 Etamines : anthères largement ellipsoïdes-sphéroïdes, de 1 à 1,5 mm de long, filets de 1 mm de long.
@@ -530,31 +616,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Olea_chimanimani</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_chimanimani</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Zimbabwe :
 Selukwe,
@@ -567,31 +655,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Olea_chimanimani</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_chimanimani</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
